--- a/102/102.xlsx
+++ b/102/102.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>No.</t>
   </si>
@@ -383,7 +383,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,8 +443,8 @@
       <c r="C3" s="3">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
+      <c r="D3" s="3">
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>9</v>

--- a/102/102.xlsx
+++ b/102/102.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>No.</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>session05</t>
+  </si>
+  <si>
+    <t>session09</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +396,7 @@
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -412,8 +415,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -432,8 +438,11 @@
       <c r="F2" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -452,8 +461,11 @@
       <c r="F3" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -472,8 +484,11 @@
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -492,8 +507,11 @@
       <c r="F5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -512,8 +530,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -532,8 +553,11 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -550,6 +574,9 @@
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/102/102.xlsx
+++ b/102/102.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>No.</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>session09</t>
+  </si>
+  <si>
+    <t>session10</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +399,7 @@
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -418,8 +421,11 @@
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -441,8 +447,11 @@
       <c r="G2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -464,8 +473,11 @@
       <c r="G3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -487,8 +499,11 @@
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -510,8 +525,11 @@
       <c r="G5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -533,8 +551,11 @@
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -556,8 +577,11 @@
       <c r="G7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -578,6 +602,9 @@
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/102/102.xlsx
+++ b/102/102.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>No.</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>session10</t>
+  </si>
+  <si>
+    <t>session11</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +402,7 @@
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -424,8 +427,11 @@
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -450,8 +456,11 @@
       <c r="H2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -476,8 +485,11 @@
       <c r="H3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,8 +514,11 @@
       <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -528,8 +543,11 @@
       <c r="H5" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -554,8 +572,11 @@
       <c r="H6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -580,8 +601,11 @@
       <c r="H7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -605,6 +629,9 @@
       </c>
       <c r="H8" s="1">
         <v>9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>

--- a/102/102.xlsx
+++ b/102/102.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -38,9 +38,6 @@
     <t>session06</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>session08</t>
   </si>
   <si>
@@ -54,12 +51,30 @@
   </si>
   <si>
     <t>session11</t>
+  </si>
+  <si>
+    <t>session14</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>session15</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +94,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -109,6 +148,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +454,7 @@
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -413,25 +465,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -459,8 +517,14 @@
       <c r="I2" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="K2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -488,37 +552,49 @@
       <c r="I3" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -546,37 +622,49 @@
       <c r="I5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -604,8 +692,14 @@
       <c r="I7" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -621,11 +715,11 @@
       <c r="E8" s="1">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>9</v>
@@ -633,8 +727,147 @@
       <c r="I8" s="1">
         <v>8.5</v>
       </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11">
+        <f>B2+C2+D2+E2+F2+G2+H2+I2+J2+K2</f>
+        <v>83</v>
+      </c>
+      <c r="C12" s="6">
+        <f>(B12*40)/B9</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11">
+        <f>B3+C3+D3+E3+F3+G3+H3+I3+J3+K3</f>
+        <v>81.5</v>
+      </c>
+      <c r="C13" s="6">
+        <f>(B13*40)/B9</f>
+        <v>32.6</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11">
+        <f>B4+C4+D4+E4+F4+G4+H4+I4+J4+K4</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="6">
+        <f>(B14*40)/B9</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>5</v>
+      </c>
+      <c r="B15" s="11">
+        <f>B5+C5+D5+E5+F5+G5+H5+I5+J5+K5</f>
+        <v>95.5</v>
+      </c>
+      <c r="C15" s="6">
+        <f>(B15*40)/B9</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11">
+        <f>B6+C6+D6+E6+F6+G6+H6+I6+J6+K6</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <f>(B16*40)/B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>7</v>
+      </c>
+      <c r="B17" s="11">
+        <f>B7+C7+D7+E7+F7+G7+H7+I7+J7+K7</f>
+        <v>56.5</v>
+      </c>
+      <c r="C17" s="6">
+        <f>(B17*40)/B9</f>
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11">
+        <f>B8+C8+8+E8+H8+I8+F8+G8+J8+D8+K8</f>
+        <v>62.5</v>
+      </c>
+      <c r="C18" s="6">
+        <f>(B18*40)/B9</f>
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/102/102.xlsx
+++ b/102/102.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>No.</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>10+</t>
+  </si>
+  <si>
+    <t>20+</t>
+  </si>
+  <si>
+    <t>25+</t>
+  </si>
+  <si>
+    <t>15+</t>
   </si>
 </sst>
 </file>
@@ -153,14 +165,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +456,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,19 +747,19 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -764,40 +776,40 @@
       <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="11">
-        <f>B2+C2+D2+E2+F2+G2+H2+I2+J2+K2</f>
+      <c r="B12" s="10">
+        <f t="shared" ref="B12:B17" si="0">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2</f>
         <v>83</v>
       </c>
       <c r="C12" s="6">
         <f>(B12*40)/B9</f>
         <v>33.200000000000003</v>
       </c>
-      <c r="D12">
-        <v>20</v>
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2</v>
       </c>
-      <c r="B13" s="11">
-        <f>B3+C3+D3+E3+F3+G3+H3+I3+J3+K3</f>
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
         <v>81.5</v>
       </c>
       <c r="C13" s="6">
         <f>(B13*40)/B9</f>
         <v>32.6</v>
       </c>
-      <c r="D13">
-        <v>10</v>
+      <c r="D13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>3</v>
       </c>
-      <c r="B14" s="11">
-        <f>B4+C4+D4+E4+F4+G4+H4+I4+J4+K4</f>
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C14" s="6">
@@ -809,24 +821,24 @@
       <c r="A15" s="7">
         <v>5</v>
       </c>
-      <c r="B15" s="11">
-        <f>B5+C5+D5+E5+F5+G5+H5+I5+J5+K5</f>
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
         <v>95.5</v>
       </c>
       <c r="C15" s="6">
         <f>(B15*40)/B9</f>
         <v>38.200000000000003</v>
       </c>
-      <c r="D15">
-        <v>30</v>
+      <c r="D15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>6</v>
       </c>
-      <c r="B16" s="11">
-        <f>B6+C6+D6+E6+F6+G6+H6+I6+J6+K6</f>
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16" s="6">
@@ -838,8 +850,8 @@
       <c r="A17" s="7">
         <v>7</v>
       </c>
-      <c r="B17" s="11">
-        <f>B7+C7+D7+E7+F7+G7+H7+I7+J7+K7</f>
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
       <c r="C17" s="6">
@@ -851,7 +863,7 @@
       <c r="A18" s="7">
         <v>8</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <f>B8+C8+8+E8+H8+I8+F8+G8+J8+D8+K8</f>
         <v>62.5</v>
       </c>
@@ -859,8 +871,8 @@
         <f>(B18*40)/B9</f>
         <v>25</v>
       </c>
-      <c r="D18">
-        <v>5</v>
+      <c r="D18" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/102/102.xlsx
+++ b/102/102.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -59,15 +59,9 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Point</t>
-  </si>
-  <si>
     <t>session15</t>
   </si>
   <si>
-    <t>Final</t>
-  </si>
-  <si>
     <t>10+</t>
   </si>
   <si>
@@ -78,6 +72,30 @@
   </si>
   <si>
     <t>15+</t>
+  </si>
+  <si>
+    <t>session17</t>
+  </si>
+  <si>
+    <t>session18</t>
+  </si>
+  <si>
+    <t>session21</t>
+  </si>
+  <si>
+    <t>session23</t>
+  </si>
+  <si>
+    <t>h.Point</t>
+  </si>
+  <si>
+    <t>h.Final</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Final Scores</t>
   </si>
 </sst>
 </file>
@@ -146,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +188,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,9 +485,11 @@
     <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -498,10 +521,22 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,8 +570,20 @@
       <c r="K2" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>9</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -570,8 +617,20 @@
       <c r="K3" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>9</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -605,8 +664,20 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -640,8 +711,20 @@
       <c r="K5" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5">
+        <v>10</v>
+      </c>
+      <c r="N5" s="5">
+        <v>9</v>
+      </c>
+      <c r="O5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -675,8 +758,20 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -710,8 +805,20 @@
       <c r="K7" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -745,66 +852,99 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="5">
+        <v>10</v>
+      </c>
+      <c r="M8" s="5">
+        <v>10</v>
+      </c>
+      <c r="N8" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="O8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
       <c r="B12" s="10">
-        <f t="shared" ref="B12:B17" si="0">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2</f>
-        <v>83</v>
+        <f t="shared" ref="B12:B17" si="0">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2</f>
+        <v>92</v>
       </c>
       <c r="C12" s="6">
         <f>(B12*40)/B9</f>
-        <v>33.200000000000003</v>
+        <v>26.285714285714285</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <f>C12+15+E12</f>
+        <v>41.285714285714285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2</v>
       </c>
       <c r="B13" s="10">
         <f t="shared" si="0"/>
-        <v>81.5</v>
+        <v>90.5</v>
       </c>
       <c r="C13" s="6">
         <f>(B13*40)/B9</f>
-        <v>32.6</v>
+        <v>25.857142857142858</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f>C13+10+E13</f>
+        <v>35.857142857142861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>3</v>
       </c>
@@ -814,26 +954,40 @@
       </c>
       <c r="C14" s="6">
         <f>(B14*40)/B9</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7">
+        <f>C14+E14</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>5</v>
       </c>
       <c r="B15" s="10">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>134.5</v>
       </c>
       <c r="C15" s="6">
         <f>(B15*40)/B9</f>
-        <v>38.200000000000003</v>
+        <v>38.428571428571431</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7">
+        <f>C15+25+E15</f>
+        <v>123.42857142857143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>6</v>
       </c>
@@ -845,34 +999,55 @@
         <f>(B16*40)/B9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <f>C16+E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>7</v>
       </c>
       <c r="B17" s="10">
         <f t="shared" si="0"/>
-        <v>56.5</v>
+        <v>66.5</v>
       </c>
       <c r="C17" s="6">
         <f>(B17*40)/B9</f>
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="F17" s="7">
+        <f>C17+E17</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>8</v>
       </c>
       <c r="B18" s="10">
-        <f>B8+C8+8+E8+H8+I8+F8+G8+J8+D8+K8</f>
-        <v>62.5</v>
+        <f>B8+C8+8+E8+H8+I8+F8+G8+J8+D8+K8+L8+M8+N8+O8</f>
+        <v>102</v>
       </c>
       <c r="C18" s="6">
         <f>(B18*40)/B9</f>
-        <v>25</v>
+        <v>29.142857142857142</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+      <c r="F18" s="7">
+        <f>C18+20+E18</f>
+        <v>104.14285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/102/102.xlsx
+++ b/102/102.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
